--- a/data/input/cost_data/PP_Sup_cost_lab.xlsx
+++ b/data/input/cost_data/PP_Sup_cost_lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/cost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F1B3C-0709-3E4A-A50B-55D80441CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD856D0D-C064-7140-9D12-FF9F9B04C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15880" yWindow="3020" windowWidth="17020" windowHeight="17980" activeTab="3" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
+    <workbookView xWindow="15880" yWindow="3020" windowWidth="17020" windowHeight="17980" activeTab="1" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="shredding" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
   <si>
     <t>machine_purchase_cost_[€]</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>maintenance_rate_[€/h]</t>
-  </si>
-  <si>
-    <t>75,41</t>
   </si>
 </sst>
 </file>
@@ -655,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14329C3B-818D-974A-839B-1CDF92A21CC9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,8 +794,8 @@
       <c r="J3">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
+      <c r="K3">
+        <v>75.41</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -838,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F903924-2D1B-F649-8D6E-329FE2160CED}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="125" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261B8B2-5703-4A47-9A2B-A87AD92FEE9B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="86" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
